--- a/issues96/ig/all-profiles.xlsx
+++ b/issues96/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T11:08:19+00:00</t>
+    <t>2024-03-28T15:28:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2666,7 +2666,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='idUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='statutUnite').exists())}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='statutUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='idUnite').exists())}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
   </si>
   <si>
     <t>Task.id</t>

--- a/issues96/ig/all-profiles.xlsx
+++ b/issues96/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16399" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16399" uniqueCount="1227">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:28:05+00:00</t>
+    <t>2024-04-02T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2666,7 +2666,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='statutUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='idUnite').exists())}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='statutUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='idUnite').exists())}</t>
   </si>
   <si>
     <t>Task.id</t>
@@ -3390,7 +3390,7 @@
     <t>motifESMS</t>
   </si>
   <si>
-    <t>Permet de définir le motif associé au statut de l’usager dans l’ESMS. Motifs obligatoires pour certains statuts suivant la table : https://mos.esante.gouv.fr/NOS/ASS_A32-StatutMotifPersonnePriseCharge/ASS_A32-StatutMotifPersonnePriseCharge.pdf</t>
+    <t>Permet de définir le motif associé au statut de l’usager dans l’ESMS.</t>
   </si>
   <si>
     <t>Task.input:motifESMS.id</t>
@@ -3416,6 +3416,9 @@
     <t>Task.input:motifESMS.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Motifs obligatoires pour certains statuts suivant la table : https://mos.esante.gouv.fr/NOS/ASS_A32-StatutMotifPersonnePriseCharge/ASS_A32-StatutMotifPersonnePriseCharge.pdf</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J251-MotifStatutPersonnePriseChargeESMS/FHIR/JDV-J251-MotifStatutPersonnePriseChargeESMS</t>
   </si>
   <si>
@@ -3628,6 +3631,10 @@
   </si>
   <si>
     <t>Permet de définir le mode de prise en charge</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : 46 (Hébergement (accueil jour et nuit)) ; 47 (Accueil de jour); 48 (Accueil de nuit) {value.coding.code='48' or value.coding.code='47' or value.coding.code='46'}</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.id</t>
@@ -47457,7 +47464,7 @@
         <v>354</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1046</v>
+        <v>1085</v>
       </c>
       <c r="N404" t="s" s="2">
         <v>1047</v>
@@ -47491,7 +47498,7 @@
       </c>
       <c r="Z404" s="2"/>
       <c r="AA404" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="AB404" t="s" s="2">
         <v>74</v>
@@ -47529,13 +47536,13 @@
         <v>843</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C405" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E405" t="s" s="2">
         <v>1028</v>
@@ -47560,7 +47567,7 @@
         <v>136</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="N405" t="s" s="2">
         <v>1031</v>
@@ -47636,7 +47643,7 @@
         <v>843</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C406" t="s" s="2">
         <v>1034</v>
@@ -47739,7 +47746,7 @@
         <v>843</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C407" t="s" s="2">
         <v>1035</v>
@@ -47844,7 +47851,7 @@
         <v>843</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C408" t="s" s="2">
         <v>1036</v>
@@ -47951,7 +47958,7 @@
         <v>843</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C409" t="s" s="2">
         <v>1037</v>
@@ -47999,7 +48006,7 @@
         <v>74</v>
       </c>
       <c r="T409" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="U409" t="s" s="2">
         <v>74</v>
@@ -48058,7 +48065,7 @@
         <v>843</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C410" t="s" s="2">
         <v>1044</v>
@@ -48084,7 +48091,7 @@
         <v>74</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M410" t="s" s="2">
         <v>1046</v>
@@ -48161,13 +48168,13 @@
         <v>843</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C411" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E411" t="s" s="2">
         <v>1028</v>
@@ -48192,7 +48199,7 @@
         <v>136</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="N411" t="s" s="2">
         <v>1031</v>
@@ -48268,7 +48275,7 @@
         <v>843</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C412" t="s" s="2">
         <v>1034</v>
@@ -48371,7 +48378,7 @@
         <v>843</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C413" t="s" s="2">
         <v>1035</v>
@@ -48476,7 +48483,7 @@
         <v>843</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C414" t="s" s="2">
         <v>1036</v>
@@ -48583,7 +48590,7 @@
         <v>843</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C415" t="s" s="2">
         <v>1037</v>
@@ -48631,7 +48638,7 @@
         <v>74</v>
       </c>
       <c r="T415" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="U415" t="s" s="2">
         <v>74</v>
@@ -48690,7 +48697,7 @@
         <v>843</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C416" t="s" s="2">
         <v>1044</v>
@@ -48793,13 +48800,13 @@
         <v>843</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C417" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D417" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E417" t="s" s="2">
         <v>1028</v>
@@ -48824,7 +48831,7 @@
         <v>136</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N417" t="s" s="2">
         <v>1031</v>
@@ -48900,7 +48907,7 @@
         <v>843</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C418" t="s" s="2">
         <v>1034</v>
@@ -49003,7 +49010,7 @@
         <v>843</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C419" t="s" s="2">
         <v>1035</v>
@@ -49108,7 +49115,7 @@
         <v>843</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C420" t="s" s="2">
         <v>1036</v>
@@ -49215,7 +49222,7 @@
         <v>843</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C421" t="s" s="2">
         <v>1037</v>
@@ -49263,7 +49270,7 @@
         <v>74</v>
       </c>
       <c r="T421" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="U421" t="s" s="2">
         <v>74</v>
@@ -49322,7 +49329,7 @@
         <v>843</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C422" t="s" s="2">
         <v>1044</v>
@@ -49425,13 +49432,13 @@
         <v>843</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C423" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E423" t="s" s="2">
         <v>1028</v>
@@ -49456,7 +49463,7 @@
         <v>136</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="N423" t="s" s="2">
         <v>1031</v>
@@ -49532,7 +49539,7 @@
         <v>843</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C424" t="s" s="2">
         <v>1034</v>
@@ -49635,7 +49642,7 @@
         <v>843</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C425" t="s" s="2">
         <v>1035</v>
@@ -49740,7 +49747,7 @@
         <v>843</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C426" t="s" s="2">
         <v>1036</v>
@@ -49847,7 +49854,7 @@
         <v>843</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C427" t="s" s="2">
         <v>1037</v>
@@ -49895,7 +49902,7 @@
         <v>74</v>
       </c>
       <c r="T427" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="U427" t="s" s="2">
         <v>74</v>
@@ -49954,7 +49961,7 @@
         <v>843</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C428" t="s" s="2">
         <v>1044</v>
@@ -50017,7 +50024,7 @@
       </c>
       <c r="Z428" s="2"/>
       <c r="AA428" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="AB428" t="s" s="2">
         <v>74</v>
@@ -50055,13 +50062,13 @@
         <v>843</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C429" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E429" t="s" s="2">
         <v>1028</v>
@@ -50086,7 +50093,7 @@
         <v>136</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="N429" t="s" s="2">
         <v>1031</v>
@@ -50162,7 +50169,7 @@
         <v>843</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C430" t="s" s="2">
         <v>1034</v>
@@ -50265,7 +50272,7 @@
         <v>843</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C431" t="s" s="2">
         <v>1035</v>
@@ -50370,7 +50377,7 @@
         <v>843</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C432" t="s" s="2">
         <v>1036</v>
@@ -50477,7 +50484,7 @@
         <v>843</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C433" t="s" s="2">
         <v>1037</v>
@@ -50525,7 +50532,7 @@
         <v>74</v>
       </c>
       <c r="T433" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="U433" t="s" s="2">
         <v>74</v>
@@ -50584,7 +50591,7 @@
         <v>843</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C434" t="s" s="2">
         <v>1044</v>
@@ -50647,7 +50654,7 @@
       </c>
       <c r="Z434" s="2"/>
       <c r="AA434" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="AB434" t="s" s="2">
         <v>74</v>
@@ -50685,13 +50692,13 @@
         <v>843</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C435" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E435" t="s" s="2">
         <v>1028</v>
@@ -50716,7 +50723,7 @@
         <v>136</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="N435" t="s" s="2">
         <v>1031</v>
@@ -50792,7 +50799,7 @@
         <v>843</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C436" t="s" s="2">
         <v>1034</v>
@@ -50895,7 +50902,7 @@
         <v>843</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C437" t="s" s="2">
         <v>1035</v>
@@ -51000,7 +51007,7 @@
         <v>843</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C438" t="s" s="2">
         <v>1036</v>
@@ -51107,7 +51114,7 @@
         <v>843</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C439" t="s" s="2">
         <v>1037</v>
@@ -51155,7 +51162,7 @@
         <v>74</v>
       </c>
       <c r="T439" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="U439" t="s" s="2">
         <v>74</v>
@@ -51214,7 +51221,7 @@
         <v>843</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C440" t="s" s="2">
         <v>1044</v>
@@ -51317,13 +51324,13 @@
         <v>843</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C441" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E441" t="s" s="2">
         <v>1028</v>
@@ -51348,7 +51355,7 @@
         <v>136</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="N441" t="s" s="2">
         <v>1031</v>
@@ -51416,7 +51423,7 @@
         <v>94</v>
       </c>
       <c r="AK441" t="s" s="2">
-        <v>95</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="442">
@@ -51424,7 +51431,7 @@
         <v>843</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C442" t="s" s="2">
         <v>1034</v>
@@ -51527,7 +51534,7 @@
         <v>843</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C443" t="s" s="2">
         <v>1035</v>
@@ -51632,7 +51639,7 @@
         <v>843</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C444" t="s" s="2">
         <v>1036</v>
@@ -51739,7 +51746,7 @@
         <v>843</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>1037</v>
@@ -51787,7 +51794,7 @@
         <v>74</v>
       </c>
       <c r="T445" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="U445" t="s" s="2">
         <v>74</v>
@@ -51846,7 +51853,7 @@
         <v>843</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>1044</v>
@@ -51909,7 +51916,7 @@
       </c>
       <c r="Z446" s="2"/>
       <c r="AA446" t="s" s="2">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="AB446" t="s" s="2">
         <v>74</v>
@@ -51947,13 +51954,13 @@
         <v>843</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C447" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="E447" t="s" s="2">
         <v>1028</v>
@@ -51978,7 +51985,7 @@
         <v>136</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="N447" t="s" s="2">
         <v>1031</v>
@@ -52054,7 +52061,7 @@
         <v>843</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>1034</v>
@@ -52157,7 +52164,7 @@
         <v>843</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>1035</v>
@@ -52262,7 +52269,7 @@
         <v>843</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C450" t="s" s="2">
         <v>1036</v>
@@ -52369,7 +52376,7 @@
         <v>843</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C451" t="s" s="2">
         <v>1037</v>
@@ -52417,7 +52424,7 @@
         <v>74</v>
       </c>
       <c r="T451" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="U451" t="s" s="2">
         <v>74</v>
@@ -52476,7 +52483,7 @@
         <v>843</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C452" t="s" s="2">
         <v>1044</v>
@@ -52539,7 +52546,7 @@
       </c>
       <c r="Z452" s="2"/>
       <c r="AA452" t="s" s="2">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="AB452" t="s" s="2">
         <v>74</v>
@@ -52577,13 +52584,13 @@
         <v>843</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C453" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="E453" t="s" s="2">
         <v>1028</v>
@@ -52608,7 +52615,7 @@
         <v>136</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="N453" t="s" s="2">
         <v>1031</v>
@@ -52684,7 +52691,7 @@
         <v>843</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C454" t="s" s="2">
         <v>1034</v>
@@ -52787,7 +52794,7 @@
         <v>843</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C455" t="s" s="2">
         <v>1035</v>
@@ -52892,7 +52899,7 @@
         <v>843</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C456" t="s" s="2">
         <v>1036</v>
@@ -52999,7 +53006,7 @@
         <v>843</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C457" t="s" s="2">
         <v>1037</v>
@@ -53047,7 +53054,7 @@
         <v>74</v>
       </c>
       <c r="T457" t="s" s="2">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="U457" t="s" s="2">
         <v>74</v>
@@ -53106,7 +53113,7 @@
         <v>843</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C458" t="s" s="2">
         <v>1044</v>
@@ -53132,7 +53139,7 @@
         <v>74</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M458" t="s" s="2">
         <v>1046</v>
@@ -53209,13 +53216,13 @@
         <v>843</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C459" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D459" t="s" s="2">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E459" t="s" s="2">
         <v>1028</v>
@@ -53240,7 +53247,7 @@
         <v>136</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="N459" t="s" s="2">
         <v>1031</v>
@@ -53316,7 +53323,7 @@
         <v>843</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C460" t="s" s="2">
         <v>1034</v>
@@ -53419,7 +53426,7 @@
         <v>843</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C461" t="s" s="2">
         <v>1035</v>
@@ -53524,7 +53531,7 @@
         <v>843</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C462" t="s" s="2">
         <v>1036</v>
@@ -53631,7 +53638,7 @@
         <v>843</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C463" t="s" s="2">
         <v>1037</v>
@@ -53679,7 +53686,7 @@
         <v>74</v>
       </c>
       <c r="T463" t="s" s="2">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="U463" t="s" s="2">
         <v>74</v>
@@ -53738,7 +53745,7 @@
         <v>843</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C464" t="s" s="2">
         <v>1044</v>
@@ -53767,7 +53774,7 @@
         <v>354</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="N464" t="s" s="2">
         <v>1047</v>
@@ -53801,7 +53808,7 @@
       </c>
       <c r="Z464" s="2"/>
       <c r="AA464" t="s" s="2">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="AB464" t="s" s="2">
         <v>74</v>
@@ -53839,13 +53846,13 @@
         <v>843</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C465" t="s" s="2">
         <v>1027</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="E465" t="s" s="2">
         <v>1028</v>
@@ -53870,7 +53877,7 @@
         <v>136</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="N465" t="s" s="2">
         <v>1031</v>
@@ -53946,7 +53953,7 @@
         <v>843</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="C466" t="s" s="2">
         <v>1034</v>
@@ -54049,7 +54056,7 @@
         <v>843</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C467" t="s" s="2">
         <v>1035</v>
@@ -54154,7 +54161,7 @@
         <v>843</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C468" t="s" s="2">
         <v>1036</v>
@@ -54261,7 +54268,7 @@
         <v>843</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C469" t="s" s="2">
         <v>1037</v>
@@ -54309,7 +54316,7 @@
         <v>74</v>
       </c>
       <c r="T469" t="s" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="U469" t="s" s="2">
         <v>74</v>
@@ -54368,7 +54375,7 @@
         <v>843</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C470" t="s" s="2">
         <v>1044</v>
@@ -54431,7 +54438,7 @@
       </c>
       <c r="Z470" s="2"/>
       <c r="AA470" t="s" s="2">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="AB470" t="s" s="2">
         <v>74</v>
@@ -54469,7 +54476,7 @@
         <v>843</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C471" t="s" s="2">
         <v>1027</v>
@@ -54500,7 +54507,7 @@
         <v>136</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="N471" t="s" s="2">
         <v>1031</v>
@@ -54576,7 +54583,7 @@
         <v>843</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C472" t="s" s="2">
         <v>1034</v>
@@ -54679,7 +54686,7 @@
         <v>843</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C473" t="s" s="2">
         <v>1035</v>
@@ -54784,7 +54791,7 @@
         <v>843</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C474" t="s" s="2">
         <v>1036</v>
@@ -54891,7 +54898,7 @@
         <v>843</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C475" t="s" s="2">
         <v>1037</v>
@@ -54939,7 +54946,7 @@
         <v>74</v>
       </c>
       <c r="T475" t="s" s="2">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="U475" t="s" s="2">
         <v>74</v>
@@ -54998,7 +55005,7 @@
         <v>843</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C476" t="s" s="2">
         <v>1044</v>
@@ -55101,7 +55108,7 @@
         <v>843</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C477" t="s" s="2">
         <v>1027</v>
@@ -55132,7 +55139,7 @@
         <v>136</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="N477" t="s" s="2">
         <v>1031</v>
@@ -55208,7 +55215,7 @@
         <v>843</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C478" t="s" s="2">
         <v>1034</v>
@@ -55311,7 +55318,7 @@
         <v>843</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="C479" t="s" s="2">
         <v>1035</v>
@@ -55416,7 +55423,7 @@
         <v>843</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C480" t="s" s="2">
         <v>1036</v>
@@ -55523,7 +55530,7 @@
         <v>843</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C481" t="s" s="2">
         <v>1037</v>
@@ -55571,7 +55578,7 @@
         <v>74</v>
       </c>
       <c r="T481" t="s" s="2">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="U481" t="s" s="2">
         <v>74</v>
@@ -55630,7 +55637,7 @@
         <v>843</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C482" t="s" s="2">
         <v>1044</v>
@@ -55733,10 +55740,10 @@
         <v>843</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -55762,14 +55769,14 @@
         <v>136</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="N483" t="s" s="2">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="O483" s="2"/>
       <c r="P483" t="s" s="2">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="Q483" t="s" s="2">
         <v>74</v>
@@ -55818,7 +55825,7 @@
         <v>74</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>75</v>
@@ -55838,10 +55845,10 @@
         <v>843</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -55941,10 +55948,10 @@
         <v>843</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -56046,10 +56053,10 @@
         <v>843</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -56153,10 +56160,10 @@
         <v>843</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -56182,16 +56189,16 @@
         <v>354</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="N487" t="s" s="2">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="O487" t="s" s="2">
         <v>357</v>
       </c>
       <c r="P487" t="s" s="2">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="Q487" t="s" s="2">
         <v>74</v>
@@ -56219,7 +56226,7 @@
         <v>315</v>
       </c>
       <c r="Z487" t="s" s="2">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="AA487" t="s" s="2">
         <v>74</v>
@@ -56240,7 +56247,7 @@
         <v>74</v>
       </c>
       <c r="AG487" t="s" s="2">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="AH487" t="s" s="2">
         <v>82</v>
@@ -56260,10 +56267,10 @@
         <v>843</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -56289,14 +56296,14 @@
         <v>1045</v>
       </c>
       <c r="M488" t="s" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="N488" t="s" s="2">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="O488" s="2"/>
       <c r="P488" t="s" s="2">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="Q488" t="s" s="2">
         <v>74</v>
@@ -56345,7 +56352,7 @@
         <v>74</v>
       </c>
       <c r="AG488" t="s" s="2">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="AH488" t="s" s="2">
         <v>82</v>

--- a/issues96/ig/all-profiles.xlsx
+++ b/issues96/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16399" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16398" uniqueCount="1228">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T07:24:27+00:00</t>
+    <t>2024-04-02T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1926,7 +1926,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>identifiant métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
+    <t>identifiants métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
   </si>
   <si>
     <t>Other identifiers associated with the document, including version independent identifiers.</t>
@@ -2072,7 +2072,7 @@
     <t>DocumentReference.type</t>
   </si>
   <si>
-    <t>Si la ressource contient le document CDA portant les données de individu et la décision : Code =  « 57830-2 » de la nomenclature LOINC docTypeCodes, Display = Admission request Document. Si la ressource contient le document CDA portant l'évaluation : Code = « 51848-0 » de la nomenclature LOINC docTypeCodes, Display = « Evaluation note</t>
+    <t>Code identifiant le type de document CDA véhiculé dans la ressource (Individu et Décision ou Evaluation)</t>
   </si>
   <si>
     <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
@@ -2081,10 +2081,11 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>Precise type of clinical document.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+regle-Type:Code = « 57830-2 » (Admission request Document) pour un document CDA Individu et Décision. Code = « 51848-0 » (Evaluation note) pour un document CDA portant l'Evaluation {(coding.code='57830-2') or (coding.code='51848-0')}</t>
   </si>
   <si>
     <t>DocumentReference.category</t>
@@ -2642,6 +2643,9 @@
   </si>
   <si>
     <t>Kind of document (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>Precise type of clinical document.</t>
   </si>
   <si>
     <t>Label to display in place of the data</t>
@@ -3736,7 +3740,7 @@
     <t>motifUnite</t>
   </si>
   <si>
-    <t>Permet de définir le motif de sortie ou d’admission impossible</t>
+    <t>Permet de définir le motif associé au statut de l’usager dans l'unité</t>
   </si>
   <si>
     <t>Task.input:motifUnite.id</t>
@@ -4863,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="108">
@@ -4871,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="109">
@@ -4887,7 +4891,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111">
@@ -4947,7 +4951,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="119">
@@ -4983,7 +4987,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="124">
@@ -4991,7 +4995,7 @@
         <v>32</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="125">
@@ -20296,7 +20300,7 @@
       </c>
       <c r="F146" s="2"/>
       <c r="G146" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>82</v>
@@ -21245,7 +21249,7 @@
       </c>
       <c r="F155" s="2"/>
       <c r="G155" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>82</v>
@@ -21820,13 +21824,11 @@
         <v>74</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Z160" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="Z160" s="2"/>
+      <c r="AA160" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="AB160" t="s" s="2">
         <v>74</v>
@@ -21856,7 +21858,7 @@
         <v>94</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>95</v>
+        <v>660</v>
       </c>
     </row>
     <row r="161">
@@ -33009,7 +33011,7 @@
       </c>
       <c r="F267" s="2"/>
       <c r="G267" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H267" t="s" s="2">
         <v>82</v>
@@ -33958,7 +33960,7 @@
       </c>
       <c r="F276" s="2"/>
       <c r="G276" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H276" t="s" s="2">
         <v>82</v>
@@ -34536,10 +34538,10 @@
         <v>107</v>
       </c>
       <c r="Z281" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AA281" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="AA281" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="AB281" t="s" s="2">
         <v>74</v>
@@ -37453,7 +37455,7 @@
         <v>141</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N309" t="s" s="2">
         <v>774</v>
@@ -38895,13 +38897,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38981,7 +38983,7 @@
         <v>74</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>75</v>
@@ -38993,18 +38995,18 @@
         <v>74</v>
       </c>
       <c r="AK323" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -39103,13 +39105,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39206,13 +39208,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39309,13 +39311,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39414,13 +39416,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39519,13 +39521,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39624,13 +39626,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39656,7 +39658,7 @@
         <v>97</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N330" t="s" s="2">
         <v>293</v>
@@ -39729,13 +39731,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39834,13 +39836,13 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39939,13 +39941,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40044,13 +40046,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40149,13 +40151,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -40254,13 +40256,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40359,13 +40361,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40464,13 +40466,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40569,13 +40571,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40676,13 +40678,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40708,10 +40710,10 @@
         <v>112</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
@@ -40762,7 +40764,7 @@
         <v>74</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>75</v>
@@ -40779,13 +40781,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40808,19 +40810,19 @@
         <v>83</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P341" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="Q341" t="s" s="2">
         <v>74</v>
@@ -40869,7 +40871,7 @@
         <v>74</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>75</v>
@@ -40886,13 +40888,13 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40918,16 +40920,16 @@
         <v>97</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>169</v>
       </c>
       <c r="P342" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="Q342" t="s" s="2">
         <v>74</v>
@@ -40976,7 +40978,7 @@
         <v>74</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>75</v>
@@ -40993,13 +40995,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -41025,10 +41027,10 @@
         <v>825</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>389</v>
@@ -41081,7 +41083,7 @@
         <v>74</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>75</v>
@@ -41098,13 +41100,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41130,14 +41132,14 @@
         <v>112</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="O344" s="2"/>
       <c r="P344" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="Q344" t="s" s="2">
         <v>74</v>
@@ -41186,7 +41188,7 @@
         <v>74</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>75</v>
@@ -41203,13 +41205,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -41232,19 +41234,19 @@
         <v>83</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="P345" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="Q345" t="s" s="2">
         <v>74</v>
@@ -41293,7 +41295,7 @@
         <v>74</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>75</v>
@@ -41310,13 +41312,13 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41342,16 +41344,16 @@
         <v>103</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>165</v>
       </c>
       <c r="P346" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="Q346" t="s" s="2">
         <v>74</v>
@@ -41379,10 +41381,10 @@
         <v>121</v>
       </c>
       <c r="Z346" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AA346" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AB346" t="s" s="2">
         <v>74</v>
@@ -41400,7 +41402,7 @@
         <v>74</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>82</v>
@@ -41417,13 +41419,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41449,13 +41451,13 @@
         <v>354</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="O347" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="P347" s="2"/>
       <c r="Q347" t="s" s="2">
@@ -41484,7 +41486,7 @@
         <v>315</v>
       </c>
       <c r="Z347" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AA347" t="s" s="2">
         <v>74</v>
@@ -41505,7 +41507,7 @@
         <v>74</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>75</v>
@@ -41522,13 +41524,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41554,16 +41556,16 @@
         <v>354</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>357</v>
       </c>
       <c r="P348" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="Q348" t="s" s="2">
         <v>74</v>
@@ -41591,7 +41593,7 @@
         <v>315</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AA348" t="s" s="2">
         <v>74</v>
@@ -41612,7 +41614,7 @@
         <v>74</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>75</v>
@@ -41629,13 +41631,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41661,13 +41663,13 @@
         <v>103</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="O349" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="P349" s="2"/>
       <c r="Q349" t="s" s="2">
@@ -41678,7 +41680,7 @@
         <v>74</v>
       </c>
       <c r="T349" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="U349" t="s" s="2">
         <v>74</v>
@@ -41696,10 +41698,10 @@
         <v>121</v>
       </c>
       <c r="Z349" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AA349" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AB349" t="s" s="2">
         <v>74</v>
@@ -41717,7 +41719,7 @@
         <v>74</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>82</v>
@@ -41734,13 +41736,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41766,22 +41768,22 @@
         <v>103</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>165</v>
       </c>
       <c r="P350" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="Q350" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R350" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="S350" t="s" s="2">
         <v>74</v>
@@ -41805,10 +41807,10 @@
         <v>121</v>
       </c>
       <c r="Z350" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AA350" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AB350" t="s" s="2">
         <v>74</v>
@@ -41826,7 +41828,7 @@
         <v>74</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>75</v>
@@ -41843,13 +41845,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41875,13 +41877,13 @@
         <v>354</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="O351" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="P351" s="2"/>
       <c r="Q351" t="s" s="2">
@@ -41910,10 +41912,10 @@
         <v>315</v>
       </c>
       <c r="Z351" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AA351" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AB351" t="s" s="2">
         <v>74</v>
@@ -41931,7 +41933,7 @@
         <v>74</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>75</v>
@@ -41948,13 +41950,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41980,10 +41982,10 @@
         <v>141</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>165</v>
@@ -42036,7 +42038,7 @@
         <v>74</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>75</v>
@@ -42053,13 +42055,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -42085,16 +42087,16 @@
         <v>825</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P353" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="Q353" t="s" s="2">
         <v>74</v>
@@ -42143,7 +42145,7 @@
         <v>74</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>75</v>
@@ -42160,17 +42162,17 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" t="s" s="2">
@@ -42192,16 +42194,16 @@
         <v>825</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>389</v>
       </c>
       <c r="P354" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Q354" t="s" s="2">
         <v>74</v>
@@ -42250,7 +42252,7 @@
         <v>74</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>75</v>
@@ -42267,13 +42269,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -42296,19 +42298,19 @@
         <v>83</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>389</v>
       </c>
       <c r="P355" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="Q355" t="s" s="2">
         <v>74</v>
@@ -42357,7 +42359,7 @@
         <v>74</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>75</v>
@@ -42374,13 +42376,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42406,10 +42408,10 @@
         <v>444</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>447</v>
@@ -42462,7 +42464,7 @@
         <v>74</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>75</v>
@@ -42479,17 +42481,17 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
@@ -42511,14 +42513,14 @@
         <v>374</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O357" s="2"/>
       <c r="P357" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Q357" t="s" s="2">
         <v>74</v>
@@ -42567,7 +42569,7 @@
         <v>74</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>75</v>
@@ -42576,7 +42578,7 @@
         <v>82</v>
       </c>
       <c r="AJ357" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AK357" t="s" s="2">
         <v>95</v>
@@ -42584,17 +42586,17 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" t="s" s="2">
@@ -42616,14 +42618,14 @@
         <v>374</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O358" s="2"/>
       <c r="P358" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="Q358" t="s" s="2">
         <v>74</v>
@@ -42672,16 +42674,16 @@
         <v>74</v>
       </c>
       <c r="AG358" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="AH358" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI358" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ358" t="s" s="2">
         <v>954</v>
-      </c>
-      <c r="AH358" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI358" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ358" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="AK358" t="s" s="2">
         <v>95</v>
@@ -42689,13 +42691,13 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -42718,19 +42720,19 @@
         <v>83</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>389</v>
       </c>
       <c r="P359" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>74</v>
@@ -42779,7 +42781,7 @@
         <v>74</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>75</v>
@@ -42796,13 +42798,13 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -42828,16 +42830,16 @@
         <v>354</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>357</v>
       </c>
       <c r="P360" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>74</v>
@@ -42865,10 +42867,10 @@
         <v>107</v>
       </c>
       <c r="Z360" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AA360" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AB360" t="s" s="2">
         <v>74</v>
@@ -42886,7 +42888,7 @@
         <v>74</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>75</v>
@@ -42903,17 +42905,17 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" t="s" s="2">
@@ -42932,19 +42934,19 @@
         <v>83</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="P361" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>74</v>
@@ -42993,7 +42995,7 @@
         <v>74</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>75</v>
@@ -43010,13 +43012,13 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -43039,19 +43041,19 @@
         <v>83</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>389</v>
       </c>
       <c r="P362" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>74</v>
@@ -43100,7 +43102,7 @@
         <v>74</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>75</v>
@@ -43117,13 +43119,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -43149,13 +43151,13 @@
         <v>354</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P363" s="2"/>
       <c r="Q363" t="s" s="2">
@@ -43184,7 +43186,7 @@
         <v>315</v>
       </c>
       <c r="Z363" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AA363" t="s" s="2">
         <v>74</v>
@@ -43205,7 +43207,7 @@
         <v>74</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>75</v>
@@ -43222,13 +43224,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -43254,13 +43256,13 @@
         <v>825</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O364" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="P364" s="2"/>
       <c r="Q364" t="s" s="2">
@@ -43310,7 +43312,7 @@
         <v>74</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>75</v>
@@ -43327,13 +43329,13 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43356,13 +43358,13 @@
         <v>74</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>389</v>
@@ -43415,7 +43417,7 @@
         <v>74</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>75</v>
@@ -43432,13 +43434,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43461,16 +43463,16 @@
         <v>74</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O366" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="P366" s="2"/>
       <c r="Q366" t="s" s="2">
@@ -43520,7 +43522,7 @@
         <v>74</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>75</v>
@@ -43537,17 +43539,17 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" t="s" s="2">
@@ -43566,16 +43568,16 @@
         <v>74</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="P367" s="2"/>
       <c r="Q367" t="s" s="2">
@@ -43625,7 +43627,7 @@
         <v>74</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>75</v>
@@ -43642,13 +43644,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43674,14 +43676,14 @@
         <v>136</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="O368" s="2"/>
       <c r="P368" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="Q368" t="s" s="2">
         <v>74</v>
@@ -43730,7 +43732,7 @@
         <v>74</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>75</v>
@@ -43747,13 +43749,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -43850,13 +43852,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -43955,13 +43957,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -44062,13 +44064,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -44091,19 +44093,19 @@
         <v>74</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O372" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="P372" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="Q372" t="s" s="2">
         <v>74</v>
@@ -44152,7 +44154,7 @@
         <v>74</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>75</v>
@@ -44169,13 +44171,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -44201,16 +44203,16 @@
         <v>444</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="O373" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="P373" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Q373" t="s" s="2">
         <v>74</v>
@@ -44259,7 +44261,7 @@
         <v>74</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>75</v>
@@ -44276,13 +44278,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -44305,13 +44307,13 @@
         <v>74</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>389</v>
@@ -44364,7 +44366,7 @@
         <v>74</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>75</v>
@@ -44381,21 +44383,21 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="H375" t="s" s="2">
         <v>76</v>
@@ -44413,14 +44415,14 @@
         <v>136</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q375" t="s" s="2">
         <v>74</v>
@@ -44457,7 +44459,7 @@
         <v>74</v>
       </c>
       <c r="AC375" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AD375" s="2"/>
       <c r="AE375" t="s" s="2">
@@ -44467,7 +44469,7 @@
         <v>153</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>75</v>
@@ -44484,13 +44486,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44587,13 +44589,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44692,13 +44694,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -44799,17 +44801,17 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" t="s" s="2">
@@ -44831,16 +44833,16 @@
         <v>354</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O379" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P379" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q379" t="s" s="2">
         <v>74</v>
@@ -44868,7 +44870,7 @@
         <v>315</v>
       </c>
       <c r="Z379" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA379" t="s" s="2">
         <v>74</v>
@@ -44889,7 +44891,7 @@
         <v>74</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>82</v>
@@ -44906,13 +44908,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -44935,13 +44937,13 @@
         <v>74</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O380" s="2"/>
       <c r="P380" s="2"/>
@@ -44992,7 +44994,7 @@
         <v>74</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>82</v>
@@ -45009,19 +45011,19 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D381" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E381" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" t="s" s="2">
@@ -45043,14 +45045,14 @@
         <v>136</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O381" s="2"/>
       <c r="P381" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q381" t="s" s="2">
         <v>74</v>
@@ -45099,7 +45101,7 @@
         <v>74</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>75</v>
@@ -45116,13 +45118,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -45219,13 +45221,13 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -45324,13 +45326,13 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -45431,17 +45433,17 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" t="s" s="2">
@@ -45463,16 +45465,16 @@
         <v>354</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O385" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P385" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q385" t="s" s="2">
         <v>74</v>
@@ -45482,7 +45484,7 @@
         <v>74</v>
       </c>
       <c r="T385" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="U385" t="s" s="2">
         <v>74</v>
@@ -45500,7 +45502,7 @@
         <v>315</v>
       </c>
       <c r="Z385" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA385" t="s" s="2">
         <v>74</v>
@@ -45521,7 +45523,7 @@
         <v>74</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>82</v>
@@ -45538,13 +45540,13 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -45570,10 +45572,10 @@
         <v>112</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O386" s="2"/>
       <c r="P386" s="2"/>
@@ -45624,7 +45626,7 @@
         <v>74</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>82</v>
@@ -45641,19 +45643,19 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D387" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E387" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" t="s" s="2">
@@ -45675,14 +45677,14 @@
         <v>136</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O387" s="2"/>
       <c r="P387" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q387" t="s" s="2">
         <v>74</v>
@@ -45731,7 +45733,7 @@
         <v>74</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>75</v>
@@ -45748,13 +45750,13 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -45851,13 +45853,13 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -45956,13 +45958,13 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -46063,17 +46065,17 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" t="s" s="2">
@@ -46095,16 +46097,16 @@
         <v>354</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O391" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P391" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q391" t="s" s="2">
         <v>74</v>
@@ -46114,7 +46116,7 @@
         <v>74</v>
       </c>
       <c r="T391" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="U391" t="s" s="2">
         <v>74</v>
@@ -46132,7 +46134,7 @@
         <v>315</v>
       </c>
       <c r="Z391" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA391" t="s" s="2">
         <v>74</v>
@@ -46153,7 +46155,7 @@
         <v>74</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>82</v>
@@ -46170,13 +46172,13 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -46202,10 +46204,10 @@
         <v>141</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
@@ -46256,7 +46258,7 @@
         <v>74</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>82</v>
@@ -46273,19 +46275,19 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D393" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E393" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" t="s" s="2">
@@ -46307,14 +46309,14 @@
         <v>136</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O393" s="2"/>
       <c r="P393" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q393" t="s" s="2">
         <v>74</v>
@@ -46363,7 +46365,7 @@
         <v>74</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>75</v>
@@ -46380,13 +46382,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -46483,13 +46485,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -46588,13 +46590,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -46695,17 +46697,17 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" t="s" s="2">
@@ -46727,16 +46729,16 @@
         <v>354</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O397" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P397" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q397" t="s" s="2">
         <v>74</v>
@@ -46746,7 +46748,7 @@
         <v>74</v>
       </c>
       <c r="T397" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="U397" t="s" s="2">
         <v>74</v>
@@ -46764,7 +46766,7 @@
         <v>315</v>
       </c>
       <c r="Z397" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA397" t="s" s="2">
         <v>74</v>
@@ -46785,7 +46787,7 @@
         <v>74</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH397" t="s" s="2">
         <v>82</v>
@@ -46802,13 +46804,13 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -46834,10 +46836,10 @@
         <v>354</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O398" s="2"/>
       <c r="P398" s="2"/>
@@ -46868,7 +46870,7 @@
       </c>
       <c r="Z398" s="2"/>
       <c r="AA398" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AB398" t="s" s="2">
         <v>74</v>
@@ -46886,7 +46888,7 @@
         <v>74</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>82</v>
@@ -46903,19 +46905,19 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D399" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E399" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" t="s" s="2">
@@ -46937,14 +46939,14 @@
         <v>136</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O399" s="2"/>
       <c r="P399" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q399" t="s" s="2">
         <v>74</v>
@@ -46993,7 +46995,7 @@
         <v>74</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>75</v>
@@ -47010,13 +47012,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -47113,13 +47115,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -47218,13 +47220,13 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -47325,17 +47327,17 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" t="s" s="2">
@@ -47357,16 +47359,16 @@
         <v>354</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O403" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P403" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q403" t="s" s="2">
         <v>74</v>
@@ -47376,7 +47378,7 @@
         <v>74</v>
       </c>
       <c r="T403" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="U403" t="s" s="2">
         <v>74</v>
@@ -47394,7 +47396,7 @@
         <v>315</v>
       </c>
       <c r="Z403" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA403" t="s" s="2">
         <v>74</v>
@@ -47415,7 +47417,7 @@
         <v>74</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>82</v>
@@ -47432,13 +47434,13 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -47464,10 +47466,10 @@
         <v>354</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
@@ -47498,7 +47500,7 @@
       </c>
       <c r="Z404" s="2"/>
       <c r="AA404" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="AB404" t="s" s="2">
         <v>74</v>
@@ -47516,7 +47518,7 @@
         <v>74</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>82</v>
@@ -47533,19 +47535,19 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E405" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" t="s" s="2">
@@ -47567,14 +47569,14 @@
         <v>136</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O405" s="2"/>
       <c r="P405" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q405" t="s" s="2">
         <v>74</v>
@@ -47623,7 +47625,7 @@
         <v>74</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>75</v>
@@ -47640,13 +47642,13 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -47743,13 +47745,13 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -47848,13 +47850,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -47955,17 +47957,17 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" t="s" s="2">
@@ -47987,16 +47989,16 @@
         <v>354</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O409" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P409" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q409" t="s" s="2">
         <v>74</v>
@@ -48006,7 +48008,7 @@
         <v>74</v>
       </c>
       <c r="T409" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="U409" t="s" s="2">
         <v>74</v>
@@ -48024,7 +48026,7 @@
         <v>315</v>
       </c>
       <c r="Z409" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA409" t="s" s="2">
         <v>74</v>
@@ -48045,7 +48047,7 @@
         <v>74</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>82</v>
@@ -48062,13 +48064,13 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -48091,13 +48093,13 @@
         <v>74</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
@@ -48148,7 +48150,7 @@
         <v>74</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>82</v>
@@ -48165,19 +48167,19 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E411" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F411" s="2"/>
       <c r="G411" t="s" s="2">
@@ -48199,14 +48201,14 @@
         <v>136</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O411" s="2"/>
       <c r="P411" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q411" t="s" s="2">
         <v>74</v>
@@ -48255,7 +48257,7 @@
         <v>74</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>75</v>
@@ -48272,13 +48274,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -48375,13 +48377,13 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -48480,13 +48482,13 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -48587,17 +48589,17 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" t="s" s="2">
@@ -48619,16 +48621,16 @@
         <v>354</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O415" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P415" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q415" t="s" s="2">
         <v>74</v>
@@ -48638,7 +48640,7 @@
         <v>74</v>
       </c>
       <c r="T415" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="U415" t="s" s="2">
         <v>74</v>
@@ -48656,7 +48658,7 @@
         <v>315</v>
       </c>
       <c r="Z415" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA415" t="s" s="2">
         <v>74</v>
@@ -48677,7 +48679,7 @@
         <v>74</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>82</v>
@@ -48694,13 +48696,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -48726,10 +48728,10 @@
         <v>112</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -48780,7 +48782,7 @@
         <v>74</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>82</v>
@@ -48797,19 +48799,19 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D417" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E417" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" t="s" s="2">
@@ -48831,14 +48833,14 @@
         <v>136</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q417" t="s" s="2">
         <v>74</v>
@@ -48887,7 +48889,7 @@
         <v>74</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>75</v>
@@ -48904,13 +48906,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -49007,13 +49009,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -49112,13 +49114,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -49219,17 +49221,17 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" t="s" s="2">
@@ -49251,16 +49253,16 @@
         <v>354</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O421" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P421" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q421" t="s" s="2">
         <v>74</v>
@@ -49270,7 +49272,7 @@
         <v>74</v>
       </c>
       <c r="T421" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="U421" t="s" s="2">
         <v>74</v>
@@ -49288,7 +49290,7 @@
         <v>315</v>
       </c>
       <c r="Z421" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA421" t="s" s="2">
         <v>74</v>
@@ -49309,7 +49311,7 @@
         <v>74</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>82</v>
@@ -49326,13 +49328,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -49358,10 +49360,10 @@
         <v>141</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
@@ -49412,7 +49414,7 @@
         <v>74</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>82</v>
@@ -49429,19 +49431,19 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E423" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F423" s="2"/>
       <c r="G423" t="s" s="2">
@@ -49463,14 +49465,14 @@
         <v>136</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q423" t="s" s="2">
         <v>74</v>
@@ -49519,7 +49521,7 @@
         <v>74</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH423" t="s" s="2">
         <v>75</v>
@@ -49536,13 +49538,13 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -49639,13 +49641,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -49744,13 +49746,13 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -49851,17 +49853,17 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F427" s="2"/>
       <c r="G427" t="s" s="2">
@@ -49883,16 +49885,16 @@
         <v>354</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O427" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P427" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q427" t="s" s="2">
         <v>74</v>
@@ -49902,7 +49904,7 @@
         <v>74</v>
       </c>
       <c r="T427" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="U427" t="s" s="2">
         <v>74</v>
@@ -49920,7 +49922,7 @@
         <v>315</v>
       </c>
       <c r="Z427" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA427" t="s" s="2">
         <v>74</v>
@@ -49941,7 +49943,7 @@
         <v>74</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>82</v>
@@ -49958,13 +49960,13 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -49990,10 +49992,10 @@
         <v>354</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
@@ -50024,7 +50026,7 @@
       </c>
       <c r="Z428" s="2"/>
       <c r="AA428" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="AB428" t="s" s="2">
         <v>74</v>
@@ -50042,7 +50044,7 @@
         <v>74</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>82</v>
@@ -50059,19 +50061,19 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E429" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
@@ -50093,14 +50095,14 @@
         <v>136</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O429" s="2"/>
       <c r="P429" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q429" t="s" s="2">
         <v>74</v>
@@ -50149,7 +50151,7 @@
         <v>74</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>75</v>
@@ -50166,13 +50168,13 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -50269,13 +50271,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -50374,13 +50376,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -50481,17 +50483,17 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" t="s" s="2">
@@ -50513,16 +50515,16 @@
         <v>354</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O433" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P433" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q433" t="s" s="2">
         <v>74</v>
@@ -50532,7 +50534,7 @@
         <v>74</v>
       </c>
       <c r="T433" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="U433" t="s" s="2">
         <v>74</v>
@@ -50550,7 +50552,7 @@
         <v>315</v>
       </c>
       <c r="Z433" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA433" t="s" s="2">
         <v>74</v>
@@ -50571,7 +50573,7 @@
         <v>74</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>82</v>
@@ -50588,13 +50590,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -50620,10 +50622,10 @@
         <v>354</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O434" s="2"/>
       <c r="P434" s="2"/>
@@ -50654,7 +50656,7 @@
       </c>
       <c r="Z434" s="2"/>
       <c r="AA434" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="AB434" t="s" s="2">
         <v>74</v>
@@ -50672,7 +50674,7 @@
         <v>74</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>82</v>
@@ -50689,19 +50691,19 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E435" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" t="s" s="2">
@@ -50723,14 +50725,14 @@
         <v>136</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O435" s="2"/>
       <c r="P435" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q435" t="s" s="2">
         <v>74</v>
@@ -50779,7 +50781,7 @@
         <v>74</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>75</v>
@@ -50796,13 +50798,13 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -50899,13 +50901,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -51004,13 +51006,13 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -51111,17 +51113,17 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" t="s" s="2">
@@ -51143,16 +51145,16 @@
         <v>354</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O439" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P439" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q439" t="s" s="2">
         <v>74</v>
@@ -51162,7 +51164,7 @@
         <v>74</v>
       </c>
       <c r="T439" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="U439" t="s" s="2">
         <v>74</v>
@@ -51180,7 +51182,7 @@
         <v>315</v>
       </c>
       <c r="Z439" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA439" t="s" s="2">
         <v>74</v>
@@ -51201,7 +51203,7 @@
         <v>74</v>
       </c>
       <c r="AG439" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH439" t="s" s="2">
         <v>82</v>
@@ -51218,13 +51220,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -51250,10 +51252,10 @@
         <v>422</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N440" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
@@ -51304,7 +51306,7 @@
         <v>74</v>
       </c>
       <c r="AG440" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH440" t="s" s="2">
         <v>82</v>
@@ -51321,19 +51323,19 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E441" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F441" s="2"/>
       <c r="G441" t="s" s="2">
@@ -51355,14 +51357,14 @@
         <v>136</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="N441" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O441" s="2"/>
       <c r="P441" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q441" t="s" s="2">
         <v>74</v>
@@ -51411,7 +51413,7 @@
         <v>74</v>
       </c>
       <c r="AG441" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH441" t="s" s="2">
         <v>75</v>
@@ -51423,18 +51425,18 @@
         <v>94</v>
       </c>
       <c r="AK441" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -51531,13 +51533,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -51636,13 +51638,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -51743,17 +51745,17 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F445" s="2"/>
       <c r="G445" t="s" s="2">
@@ -51775,16 +51777,16 @@
         <v>354</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O445" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P445" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q445" t="s" s="2">
         <v>74</v>
@@ -51794,7 +51796,7 @@
         <v>74</v>
       </c>
       <c r="T445" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="U445" t="s" s="2">
         <v>74</v>
@@ -51812,7 +51814,7 @@
         <v>315</v>
       </c>
       <c r="Z445" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA445" t="s" s="2">
         <v>74</v>
@@ -51833,7 +51835,7 @@
         <v>74</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>82</v>
@@ -51850,13 +51852,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -51882,10 +51884,10 @@
         <v>354</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
@@ -51916,7 +51918,7 @@
       </c>
       <c r="Z446" s="2"/>
       <c r="AA446" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="AB446" t="s" s="2">
         <v>74</v>
@@ -51934,7 +51936,7 @@
         <v>74</v>
       </c>
       <c r="AG446" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH446" t="s" s="2">
         <v>82</v>
@@ -51951,19 +51953,19 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="E447" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F447" s="2"/>
       <c r="G447" t="s" s="2">
@@ -51985,14 +51987,14 @@
         <v>136</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O447" s="2"/>
       <c r="P447" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q447" t="s" s="2">
         <v>74</v>
@@ -52041,7 +52043,7 @@
         <v>74</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>75</v>
@@ -52058,13 +52060,13 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -52161,13 +52163,13 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -52266,13 +52268,13 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -52373,17 +52375,17 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F451" s="2"/>
       <c r="G451" t="s" s="2">
@@ -52405,16 +52407,16 @@
         <v>354</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O451" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P451" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q451" t="s" s="2">
         <v>74</v>
@@ -52424,7 +52426,7 @@
         <v>74</v>
       </c>
       <c r="T451" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="U451" t="s" s="2">
         <v>74</v>
@@ -52442,7 +52444,7 @@
         <v>315</v>
       </c>
       <c r="Z451" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA451" t="s" s="2">
         <v>74</v>
@@ -52463,7 +52465,7 @@
         <v>74</v>
       </c>
       <c r="AG451" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH451" t="s" s="2">
         <v>82</v>
@@ -52480,13 +52482,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -52512,10 +52514,10 @@
         <v>354</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
@@ -52546,7 +52548,7 @@
       </c>
       <c r="Z452" s="2"/>
       <c r="AA452" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AB452" t="s" s="2">
         <v>74</v>
@@ -52564,7 +52566,7 @@
         <v>74</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>82</v>
@@ -52581,19 +52583,19 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E453" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F453" s="2"/>
       <c r="G453" t="s" s="2">
@@ -52615,14 +52617,14 @@
         <v>136</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O453" s="2"/>
       <c r="P453" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q453" t="s" s="2">
         <v>74</v>
@@ -52671,7 +52673,7 @@
         <v>74</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>75</v>
@@ -52688,13 +52690,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -52791,13 +52793,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -52896,13 +52898,13 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -53003,17 +53005,17 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" t="s" s="2">
@@ -53035,16 +53037,16 @@
         <v>354</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O457" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P457" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q457" t="s" s="2">
         <v>74</v>
@@ -53054,7 +53056,7 @@
         <v>74</v>
       </c>
       <c r="T457" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="U457" t="s" s="2">
         <v>74</v>
@@ -53072,7 +53074,7 @@
         <v>315</v>
       </c>
       <c r="Z457" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA457" t="s" s="2">
         <v>74</v>
@@ -53093,7 +53095,7 @@
         <v>74</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>82</v>
@@ -53110,13 +53112,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -53139,13 +53141,13 @@
         <v>74</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O458" s="2"/>
       <c r="P458" s="2"/>
@@ -53196,7 +53198,7 @@
         <v>74</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>82</v>
@@ -53213,19 +53215,19 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D459" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E459" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" t="s" s="2">
@@ -53247,14 +53249,14 @@
         <v>136</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O459" s="2"/>
       <c r="P459" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q459" t="s" s="2">
         <v>74</v>
@@ -53303,7 +53305,7 @@
         <v>74</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>75</v>
@@ -53320,13 +53322,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -53423,13 +53425,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -53528,13 +53530,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -53635,17 +53637,17 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F463" s="2"/>
       <c r="G463" t="s" s="2">
@@ -53667,16 +53669,16 @@
         <v>354</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O463" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P463" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q463" t="s" s="2">
         <v>74</v>
@@ -53686,7 +53688,7 @@
         <v>74</v>
       </c>
       <c r="T463" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="U463" t="s" s="2">
         <v>74</v>
@@ -53704,7 +53706,7 @@
         <v>315</v>
       </c>
       <c r="Z463" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA463" t="s" s="2">
         <v>74</v>
@@ -53725,7 +53727,7 @@
         <v>74</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>82</v>
@@ -53742,13 +53744,13 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -53774,10 +53776,10 @@
         <v>354</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
@@ -53808,7 +53810,7 @@
       </c>
       <c r="Z464" s="2"/>
       <c r="AA464" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="AB464" t="s" s="2">
         <v>74</v>
@@ -53826,7 +53828,7 @@
         <v>74</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>82</v>
@@ -53843,19 +53845,19 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E465" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" t="s" s="2">
@@ -53877,14 +53879,14 @@
         <v>136</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O465" s="2"/>
       <c r="P465" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q465" t="s" s="2">
         <v>74</v>
@@ -53933,7 +53935,7 @@
         <v>74</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>75</v>
@@ -53950,13 +53952,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -54053,13 +54055,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -54158,13 +54160,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -54265,17 +54267,17 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F469" s="2"/>
       <c r="G469" t="s" s="2">
@@ -54297,16 +54299,16 @@
         <v>354</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O469" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P469" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q469" t="s" s="2">
         <v>74</v>
@@ -54316,7 +54318,7 @@
         <v>74</v>
       </c>
       <c r="T469" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="U469" t="s" s="2">
         <v>74</v>
@@ -54334,7 +54336,7 @@
         <v>315</v>
       </c>
       <c r="Z469" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA469" t="s" s="2">
         <v>74</v>
@@ -54355,7 +54357,7 @@
         <v>74</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>82</v>
@@ -54372,13 +54374,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -54404,10 +54406,10 @@
         <v>354</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
@@ -54438,7 +54440,7 @@
       </c>
       <c r="Z470" s="2"/>
       <c r="AA470" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="AB470" t="s" s="2">
         <v>74</v>
@@ -54456,7 +54458,7 @@
         <v>74</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>82</v>
@@ -54473,19 +54475,19 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D471" t="s" s="2">
         <v>612</v>
       </c>
       <c r="E471" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F471" s="2"/>
       <c r="G471" t="s" s="2">
@@ -54507,14 +54509,14 @@
         <v>136</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q471" t="s" s="2">
         <v>74</v>
@@ -54563,7 +54565,7 @@
         <v>74</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>75</v>
@@ -54580,13 +54582,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -54683,13 +54685,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -54788,13 +54790,13 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
@@ -54895,17 +54897,17 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F475" s="2"/>
       <c r="G475" t="s" s="2">
@@ -54927,16 +54929,16 @@
         <v>354</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N475" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O475" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P475" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q475" t="s" s="2">
         <v>74</v>
@@ -54946,7 +54948,7 @@
         <v>74</v>
       </c>
       <c r="T475" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="U475" t="s" s="2">
         <v>74</v>
@@ -54964,7 +54966,7 @@
         <v>315</v>
       </c>
       <c r="Z475" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA475" t="s" s="2">
         <v>74</v>
@@ -54985,7 +54987,7 @@
         <v>74</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH475" t="s" s="2">
         <v>82</v>
@@ -55002,13 +55004,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -55034,10 +55036,10 @@
         <v>112</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
@@ -55088,7 +55090,7 @@
         <v>74</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH476" t="s" s="2">
         <v>82</v>
@@ -55105,19 +55107,19 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D477" t="s" s="2">
         <v>633</v>
       </c>
       <c r="E477" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F477" s="2"/>
       <c r="G477" t="s" s="2">
@@ -55139,14 +55141,14 @@
         <v>136</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O477" s="2"/>
       <c r="P477" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q477" t="s" s="2">
         <v>74</v>
@@ -55195,7 +55197,7 @@
         <v>74</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>75</v>
@@ -55212,13 +55214,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -55315,13 +55317,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -55420,13 +55422,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -55527,17 +55529,17 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F481" s="2"/>
       <c r="G481" t="s" s="2">
@@ -55559,16 +55561,16 @@
         <v>354</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N481" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O481" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="P481" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Q481" t="s" s="2">
         <v>74</v>
@@ -55578,7 +55580,7 @@
         <v>74</v>
       </c>
       <c r="T481" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="U481" t="s" s="2">
         <v>74</v>
@@ -55596,7 +55598,7 @@
         <v>315</v>
       </c>
       <c r="Z481" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA481" t="s" s="2">
         <v>74</v>
@@ -55617,7 +55619,7 @@
         <v>74</v>
       </c>
       <c r="AG481" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AH481" t="s" s="2">
         <v>82</v>
@@ -55634,13 +55636,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -55666,10 +55668,10 @@
         <v>112</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
@@ -55720,7 +55722,7 @@
         <v>74</v>
       </c>
       <c r="AG482" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AH482" t="s" s="2">
         <v>82</v>
@@ -55737,13 +55739,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -55769,14 +55771,14 @@
         <v>136</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="N483" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="O483" s="2"/>
       <c r="P483" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="Q483" t="s" s="2">
         <v>74</v>
@@ -55825,7 +55827,7 @@
         <v>74</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>75</v>
@@ -55842,13 +55844,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -55945,13 +55947,13 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -56050,13 +56052,13 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -56157,17 +56159,17 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F487" s="2"/>
       <c r="G487" t="s" s="2">
@@ -56189,16 +56191,16 @@
         <v>354</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="N487" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="O487" t="s" s="2">
         <v>357</v>
       </c>
       <c r="P487" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="Q487" t="s" s="2">
         <v>74</v>
@@ -56226,7 +56228,7 @@
         <v>315</v>
       </c>
       <c r="Z487" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AA487" t="s" s="2">
         <v>74</v>
@@ -56247,7 +56249,7 @@
         <v>74</v>
       </c>
       <c r="AG487" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="AH487" t="s" s="2">
         <v>82</v>
@@ -56264,13 +56266,13 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -56293,17 +56295,17 @@
         <v>74</v>
       </c>
       <c r="L488" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M488" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="N488" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="O488" s="2"/>
       <c r="P488" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="Q488" t="s" s="2">
         <v>74</v>
@@ -56352,7 +56354,7 @@
         <v>74</v>
       </c>
       <c r="AG488" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="AH488" t="s" s="2">
         <v>82</v>

--- a/issues96/ig/all-profiles.xlsx
+++ b/issues96/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T13:59:53+00:00</t>
+    <t>2024-04-03T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/all-profiles.xlsx
+++ b/issues96/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16398" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16398" uniqueCount="1229">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T07:12:34+00:00</t>
+    <t>2024-04-03T15:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2081,7 +2081,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sdo/ValueSet/type-document-reference-esms-valueset</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -2646,6 +2646,9 @@
   </si>
   <si>
     <t>Precise type of clinical document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
   </si>
   <si>
     <t>Label to display in place of the data</t>
@@ -4867,7 +4870,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="108">
@@ -4875,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="109">
@@ -4891,7 +4894,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="111">
@@ -4951,7 +4954,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="119">
@@ -4987,7 +4990,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="124">
@@ -4995,7 +4998,7 @@
         <v>32</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="125">
@@ -34541,7 +34544,7 @@
         <v>842</v>
       </c>
       <c r="AA281" t="s" s="2">
-        <v>659</v>
+        <v>843</v>
       </c>
       <c r="AB281" t="s" s="2">
         <v>74</v>
@@ -37455,7 +37458,7 @@
         <v>141</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N309" t="s" s="2">
         <v>774</v>
@@ -38897,13 +38900,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38983,7 +38986,7 @@
         <v>74</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>75</v>
@@ -38995,18 +38998,18 @@
         <v>74</v>
       </c>
       <c r="AK323" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -39105,13 +39108,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39208,13 +39211,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39311,13 +39314,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39416,13 +39419,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39521,13 +39524,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39626,13 +39629,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39658,7 +39661,7 @@
         <v>97</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N330" t="s" s="2">
         <v>293</v>
@@ -39731,13 +39734,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39836,13 +39839,13 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39941,13 +39944,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40046,13 +40049,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40151,13 +40154,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -40256,13 +40259,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40361,13 +40364,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40466,13 +40469,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -40571,13 +40574,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40678,13 +40681,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40710,10 +40713,10 @@
         <v>112</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
@@ -40764,7 +40767,7 @@
         <v>74</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>75</v>
@@ -40781,13 +40784,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40810,19 +40813,19 @@
         <v>83</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="P341" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Q341" t="s" s="2">
         <v>74</v>
@@ -40871,7 +40874,7 @@
         <v>74</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>75</v>
@@ -40888,13 +40891,13 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40920,16 +40923,16 @@
         <v>97</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>169</v>
       </c>
       <c r="P342" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="Q342" t="s" s="2">
         <v>74</v>
@@ -40978,7 +40981,7 @@
         <v>74</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>75</v>
@@ -40995,13 +40998,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -41027,10 +41030,10 @@
         <v>825</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>389</v>
@@ -41083,7 +41086,7 @@
         <v>74</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>75</v>
@@ -41100,13 +41103,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41132,14 +41135,14 @@
         <v>112</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O344" s="2"/>
       <c r="P344" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Q344" t="s" s="2">
         <v>74</v>
@@ -41188,7 +41191,7 @@
         <v>74</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>75</v>
@@ -41205,13 +41208,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -41234,19 +41237,19 @@
         <v>83</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O345" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="P345" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Q345" t="s" s="2">
         <v>74</v>
@@ -41295,7 +41298,7 @@
         <v>74</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>75</v>
@@ -41312,13 +41315,13 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -41344,16 +41347,16 @@
         <v>103</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>165</v>
       </c>
       <c r="P346" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="Q346" t="s" s="2">
         <v>74</v>
@@ -41381,10 +41384,10 @@
         <v>121</v>
       </c>
       <c r="Z346" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AA346" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AB346" t="s" s="2">
         <v>74</v>
@@ -41402,7 +41405,7 @@
         <v>74</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>82</v>
@@ -41419,13 +41422,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -41451,13 +41454,13 @@
         <v>354</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="O347" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="P347" s="2"/>
       <c r="Q347" t="s" s="2">
@@ -41486,7 +41489,7 @@
         <v>315</v>
       </c>
       <c r="Z347" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AA347" t="s" s="2">
         <v>74</v>
@@ -41507,7 +41510,7 @@
         <v>74</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>75</v>
@@ -41524,13 +41527,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41556,16 +41559,16 @@
         <v>354</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>357</v>
       </c>
       <c r="P348" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="Q348" t="s" s="2">
         <v>74</v>
@@ -41593,7 +41596,7 @@
         <v>315</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AA348" t="s" s="2">
         <v>74</v>
@@ -41614,7 +41617,7 @@
         <v>74</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>75</v>
@@ -41631,13 +41634,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41663,13 +41666,13 @@
         <v>103</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="O349" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="P349" s="2"/>
       <c r="Q349" t="s" s="2">
@@ -41680,7 +41683,7 @@
         <v>74</v>
       </c>
       <c r="T349" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="U349" t="s" s="2">
         <v>74</v>
@@ -41698,10 +41701,10 @@
         <v>121</v>
       </c>
       <c r="Z349" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AA349" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AB349" t="s" s="2">
         <v>74</v>
@@ -41719,7 +41722,7 @@
         <v>74</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>82</v>
@@ -41736,13 +41739,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41768,22 +41771,22 @@
         <v>103</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>165</v>
       </c>
       <c r="P350" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="Q350" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R350" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="S350" t="s" s="2">
         <v>74</v>
@@ -41807,10 +41810,10 @@
         <v>121</v>
       </c>
       <c r="Z350" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AA350" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AB350" t="s" s="2">
         <v>74</v>
@@ -41828,7 +41831,7 @@
         <v>74</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>75</v>
@@ -41845,13 +41848,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41877,13 +41880,13 @@
         <v>354</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O351" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="P351" s="2"/>
       <c r="Q351" t="s" s="2">
@@ -41912,10 +41915,10 @@
         <v>315</v>
       </c>
       <c r="Z351" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AA351" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AB351" t="s" s="2">
         <v>74</v>
@@ -41933,7 +41936,7 @@
         <v>74</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>75</v>
@@ -41950,13 +41953,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41982,10 +41985,10 @@
         <v>141</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>165</v>
@@ -42038,7 +42041,7 @@
         <v>74</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>75</v>
@@ -42055,13 +42058,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -42087,16 +42090,16 @@
         <v>825</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="P353" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Q353" t="s" s="2">
         <v>74</v>
@@ -42145,7 +42148,7 @@
         <v>74</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>75</v>
@@ -42162,17 +42165,17 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" t="s" s="2">
@@ -42194,16 +42197,16 @@
         <v>825</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>389</v>
       </c>
       <c r="P354" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Q354" t="s" s="2">
         <v>74</v>
@@ -42252,7 +42255,7 @@
         <v>74</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>75</v>
@@ -42269,13 +42272,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -42298,19 +42301,19 @@
         <v>83</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>389</v>
       </c>
       <c r="P355" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="Q355" t="s" s="2">
         <v>74</v>
@@ -42359,7 +42362,7 @@
         <v>74</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>75</v>
@@ -42376,13 +42379,13 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42408,10 +42411,10 @@
         <v>444</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>447</v>
@@ -42464,7 +42467,7 @@
         <v>74</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>75</v>
@@ -42481,17 +42484,17 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
@@ -42513,14 +42516,14 @@
         <v>374</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O357" s="2"/>
       <c r="P357" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="Q357" t="s" s="2">
         <v>74</v>
@@ -42569,7 +42572,7 @@
         <v>74</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>75</v>
@@ -42578,7 +42581,7 @@
         <v>82</v>
       </c>
       <c r="AJ357" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AK357" t="s" s="2">
         <v>95</v>
@@ -42586,17 +42589,17 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" t="s" s="2">
@@ -42618,14 +42621,14 @@
         <v>374</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="O358" s="2"/>
       <c r="P358" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="Q358" t="s" s="2">
         <v>74</v>
@@ -42674,16 +42677,16 @@
         <v>74</v>
       </c>
       <c r="AG358" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AH358" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI358" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ358" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="AH358" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI358" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ358" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="AK358" t="s" s="2">
         <v>95</v>
@@ -42691,13 +42694,13 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -42720,19 +42723,19 @@
         <v>83</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>389</v>
       </c>
       <c r="P359" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>74</v>
@@ -42781,7 +42784,7 @@
         <v>74</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>75</v>
@@ -42798,13 +42801,13 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -42830,16 +42833,16 @@
         <v>354</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>357</v>
       </c>
       <c r="P360" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="Q360" t="s" s="2">
         <v>74</v>
@@ -42867,10 +42870,10 @@
         <v>107</v>
       </c>
       <c r="Z360" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AA360" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AB360" t="s" s="2">
         <v>74</v>
@@ -42888,7 +42891,7 @@
         <v>74</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>75</v>
@@ -42905,17 +42908,17 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" t="s" s="2">
@@ -42934,19 +42937,19 @@
         <v>83</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="P361" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="Q361" t="s" s="2">
         <v>74</v>
@@ -42995,7 +42998,7 @@
         <v>74</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>75</v>
@@ -43012,13 +43015,13 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -43041,19 +43044,19 @@
         <v>83</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>389</v>
       </c>
       <c r="P362" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="Q362" t="s" s="2">
         <v>74</v>
@@ -43102,7 +43105,7 @@
         <v>74</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>75</v>
@@ -43119,13 +43122,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -43151,13 +43154,13 @@
         <v>354</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O363" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="P363" s="2"/>
       <c r="Q363" t="s" s="2">
@@ -43186,7 +43189,7 @@
         <v>315</v>
       </c>
       <c r="Z363" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AA363" t="s" s="2">
         <v>74</v>
@@ -43207,7 +43210,7 @@
         <v>74</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>75</v>
@@ -43224,13 +43227,13 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -43256,13 +43259,13 @@
         <v>825</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O364" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="P364" s="2"/>
       <c r="Q364" t="s" s="2">
@@ -43312,7 +43315,7 @@
         <v>74</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>75</v>
@@ -43329,13 +43332,13 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -43358,13 +43361,13 @@
         <v>74</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>389</v>
@@ -43417,7 +43420,7 @@
         <v>74</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>75</v>
@@ -43434,13 +43437,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43463,16 +43466,16 @@
         <v>74</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O366" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="P366" s="2"/>
       <c r="Q366" t="s" s="2">
@@ -43522,7 +43525,7 @@
         <v>74</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>75</v>
@@ -43539,17 +43542,17 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" t="s" s="2">
@@ -43568,16 +43571,16 @@
         <v>74</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="P367" s="2"/>
       <c r="Q367" t="s" s="2">
@@ -43627,7 +43630,7 @@
         <v>74</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>75</v>
@@ -43644,13 +43647,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43676,14 +43679,14 @@
         <v>136</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O368" s="2"/>
       <c r="P368" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="Q368" t="s" s="2">
         <v>74</v>
@@ -43732,7 +43735,7 @@
         <v>74</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>75</v>
@@ -43749,13 +43752,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -43852,13 +43855,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -43957,13 +43960,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -44064,13 +44067,13 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -44093,19 +44096,19 @@
         <v>74</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O372" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="P372" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Q372" t="s" s="2">
         <v>74</v>
@@ -44154,7 +44157,7 @@
         <v>74</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>75</v>
@@ -44171,13 +44174,13 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -44203,16 +44206,16 @@
         <v>444</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="O373" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="P373" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="Q373" t="s" s="2">
         <v>74</v>
@@ -44261,7 +44264,7 @@
         <v>74</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>75</v>
@@ -44278,13 +44281,13 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -44307,13 +44310,13 @@
         <v>74</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>389</v>
@@ -44366,7 +44369,7 @@
         <v>74</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>75</v>
@@ -44383,21 +44386,21 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H375" t="s" s="2">
         <v>76</v>
@@ -44415,14 +44418,14 @@
         <v>136</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q375" t="s" s="2">
         <v>74</v>
@@ -44459,7 +44462,7 @@
         <v>74</v>
       </c>
       <c r="AC375" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AD375" s="2"/>
       <c r="AE375" t="s" s="2">
@@ -44469,7 +44472,7 @@
         <v>153</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>75</v>
@@ -44486,13 +44489,13 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -44589,13 +44592,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44694,13 +44697,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -44801,17 +44804,17 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" t="s" s="2">
@@ -44833,16 +44836,16 @@
         <v>354</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O379" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P379" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q379" t="s" s="2">
         <v>74</v>
@@ -44870,7 +44873,7 @@
         <v>315</v>
       </c>
       <c r="Z379" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA379" t="s" s="2">
         <v>74</v>
@@ -44891,7 +44894,7 @@
         <v>74</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>82</v>
@@ -44908,13 +44911,13 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -44937,13 +44940,13 @@
         <v>74</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O380" s="2"/>
       <c r="P380" s="2"/>
@@ -44994,7 +44997,7 @@
         <v>74</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>82</v>
@@ -45011,19 +45014,19 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D381" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E381" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" t="s" s="2">
@@ -45045,14 +45048,14 @@
         <v>136</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O381" s="2"/>
       <c r="P381" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q381" t="s" s="2">
         <v>74</v>
@@ -45101,7 +45104,7 @@
         <v>74</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>75</v>
@@ -45118,13 +45121,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
@@ -45221,13 +45224,13 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -45326,13 +45329,13 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -45433,17 +45436,17 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" t="s" s="2">
@@ -45465,16 +45468,16 @@
         <v>354</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O385" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P385" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q385" t="s" s="2">
         <v>74</v>
@@ -45484,7 +45487,7 @@
         <v>74</v>
       </c>
       <c r="T385" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="U385" t="s" s="2">
         <v>74</v>
@@ -45502,7 +45505,7 @@
         <v>315</v>
       </c>
       <c r="Z385" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA385" t="s" s="2">
         <v>74</v>
@@ -45523,7 +45526,7 @@
         <v>74</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>82</v>
@@ -45540,13 +45543,13 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -45572,10 +45575,10 @@
         <v>112</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O386" s="2"/>
       <c r="P386" s="2"/>
@@ -45626,7 +45629,7 @@
         <v>74</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>82</v>
@@ -45643,19 +45646,19 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D387" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E387" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" t="s" s="2">
@@ -45677,14 +45680,14 @@
         <v>136</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O387" s="2"/>
       <c r="P387" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q387" t="s" s="2">
         <v>74</v>
@@ -45733,7 +45736,7 @@
         <v>74</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>75</v>
@@ -45750,13 +45753,13 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -45853,13 +45856,13 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -45958,13 +45961,13 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -46065,17 +46068,17 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" t="s" s="2">
@@ -46097,16 +46100,16 @@
         <v>354</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O391" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P391" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q391" t="s" s="2">
         <v>74</v>
@@ -46116,7 +46119,7 @@
         <v>74</v>
       </c>
       <c r="T391" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="U391" t="s" s="2">
         <v>74</v>
@@ -46134,7 +46137,7 @@
         <v>315</v>
       </c>
       <c r="Z391" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA391" t="s" s="2">
         <v>74</v>
@@ -46155,7 +46158,7 @@
         <v>74</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>82</v>
@@ -46172,13 +46175,13 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -46204,10 +46207,10 @@
         <v>141</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
@@ -46258,7 +46261,7 @@
         <v>74</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>82</v>
@@ -46275,19 +46278,19 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D393" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E393" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" t="s" s="2">
@@ -46309,14 +46312,14 @@
         <v>136</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O393" s="2"/>
       <c r="P393" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q393" t="s" s="2">
         <v>74</v>
@@ -46365,7 +46368,7 @@
         <v>74</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>75</v>
@@ -46382,13 +46385,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -46485,13 +46488,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -46590,13 +46593,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -46697,17 +46700,17 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" t="s" s="2">
@@ -46729,16 +46732,16 @@
         <v>354</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O397" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P397" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q397" t="s" s="2">
         <v>74</v>
@@ -46748,7 +46751,7 @@
         <v>74</v>
       </c>
       <c r="T397" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="U397" t="s" s="2">
         <v>74</v>
@@ -46766,7 +46769,7 @@
         <v>315</v>
       </c>
       <c r="Z397" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA397" t="s" s="2">
         <v>74</v>
@@ -46787,7 +46790,7 @@
         <v>74</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH397" t="s" s="2">
         <v>82</v>
@@ -46804,13 +46807,13 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -46836,10 +46839,10 @@
         <v>354</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O398" s="2"/>
       <c r="P398" s="2"/>
@@ -46870,7 +46873,7 @@
       </c>
       <c r="Z398" s="2"/>
       <c r="AA398" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AB398" t="s" s="2">
         <v>74</v>
@@ -46888,7 +46891,7 @@
         <v>74</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>82</v>
@@ -46905,19 +46908,19 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D399" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E399" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" t="s" s="2">
@@ -46939,14 +46942,14 @@
         <v>136</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O399" s="2"/>
       <c r="P399" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q399" t="s" s="2">
         <v>74</v>
@@ -46995,7 +46998,7 @@
         <v>74</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>75</v>
@@ -47012,13 +47015,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -47115,13 +47118,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -47220,13 +47223,13 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -47327,17 +47330,17 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" t="s" s="2">
@@ -47359,16 +47362,16 @@
         <v>354</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O403" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P403" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q403" t="s" s="2">
         <v>74</v>
@@ -47378,7 +47381,7 @@
         <v>74</v>
       </c>
       <c r="T403" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="U403" t="s" s="2">
         <v>74</v>
@@ -47396,7 +47399,7 @@
         <v>315</v>
       </c>
       <c r="Z403" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA403" t="s" s="2">
         <v>74</v>
@@ -47417,7 +47420,7 @@
         <v>74</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>82</v>
@@ -47434,13 +47437,13 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -47466,10 +47469,10 @@
         <v>354</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
@@ -47500,7 +47503,7 @@
       </c>
       <c r="Z404" s="2"/>
       <c r="AA404" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AB404" t="s" s="2">
         <v>74</v>
@@ -47518,7 +47521,7 @@
         <v>74</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>82</v>
@@ -47535,19 +47538,19 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E405" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" t="s" s="2">
@@ -47569,14 +47572,14 @@
         <v>136</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O405" s="2"/>
       <c r="P405" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q405" t="s" s="2">
         <v>74</v>
@@ -47625,7 +47628,7 @@
         <v>74</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>75</v>
@@ -47642,13 +47645,13 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -47745,13 +47748,13 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -47850,13 +47853,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -47957,17 +47960,17 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" t="s" s="2">
@@ -47989,16 +47992,16 @@
         <v>354</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O409" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P409" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q409" t="s" s="2">
         <v>74</v>
@@ -48008,7 +48011,7 @@
         <v>74</v>
       </c>
       <c r="T409" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="U409" t="s" s="2">
         <v>74</v>
@@ -48026,7 +48029,7 @@
         <v>315</v>
       </c>
       <c r="Z409" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA409" t="s" s="2">
         <v>74</v>
@@ -48047,7 +48050,7 @@
         <v>74</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>82</v>
@@ -48064,13 +48067,13 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -48093,13 +48096,13 @@
         <v>74</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
@@ -48150,7 +48153,7 @@
         <v>74</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>82</v>
@@ -48167,19 +48170,19 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E411" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F411" s="2"/>
       <c r="G411" t="s" s="2">
@@ -48201,14 +48204,14 @@
         <v>136</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O411" s="2"/>
       <c r="P411" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q411" t="s" s="2">
         <v>74</v>
@@ -48257,7 +48260,7 @@
         <v>74</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>75</v>
@@ -48274,13 +48277,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -48377,13 +48380,13 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -48482,13 +48485,13 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -48589,17 +48592,17 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" t="s" s="2">
@@ -48621,16 +48624,16 @@
         <v>354</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O415" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P415" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q415" t="s" s="2">
         <v>74</v>
@@ -48640,7 +48643,7 @@
         <v>74</v>
       </c>
       <c r="T415" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="U415" t="s" s="2">
         <v>74</v>
@@ -48658,7 +48661,7 @@
         <v>315</v>
       </c>
       <c r="Z415" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA415" t="s" s="2">
         <v>74</v>
@@ -48679,7 +48682,7 @@
         <v>74</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>82</v>
@@ -48696,13 +48699,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -48728,10 +48731,10 @@
         <v>112</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -48782,7 +48785,7 @@
         <v>74</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>82</v>
@@ -48799,19 +48802,19 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D417" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E417" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" t="s" s="2">
@@ -48833,14 +48836,14 @@
         <v>136</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q417" t="s" s="2">
         <v>74</v>
@@ -48889,7 +48892,7 @@
         <v>74</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>75</v>
@@ -48906,13 +48909,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -49009,13 +49012,13 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -49114,13 +49117,13 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -49221,17 +49224,17 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" t="s" s="2">
@@ -49253,16 +49256,16 @@
         <v>354</v>
       </c>
       <c r="M421" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N421" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O421" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P421" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q421" t="s" s="2">
         <v>74</v>
@@ -49272,7 +49275,7 @@
         <v>74</v>
       </c>
       <c r="T421" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="U421" t="s" s="2">
         <v>74</v>
@@ -49290,7 +49293,7 @@
         <v>315</v>
       </c>
       <c r="Z421" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA421" t="s" s="2">
         <v>74</v>
@@ -49311,7 +49314,7 @@
         <v>74</v>
       </c>
       <c r="AG421" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH421" t="s" s="2">
         <v>82</v>
@@ -49328,13 +49331,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -49360,10 +49363,10 @@
         <v>141</v>
       </c>
       <c r="M422" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N422" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
@@ -49414,7 +49417,7 @@
         <v>74</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>82</v>
@@ -49431,19 +49434,19 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E423" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F423" s="2"/>
       <c r="G423" t="s" s="2">
@@ -49465,14 +49468,14 @@
         <v>136</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O423" s="2"/>
       <c r="P423" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q423" t="s" s="2">
         <v>74</v>
@@ -49521,7 +49524,7 @@
         <v>74</v>
       </c>
       <c r="AG423" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH423" t="s" s="2">
         <v>75</v>
@@ -49538,13 +49541,13 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -49641,13 +49644,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -49746,13 +49749,13 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -49853,17 +49856,17 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F427" s="2"/>
       <c r="G427" t="s" s="2">
@@ -49885,16 +49888,16 @@
         <v>354</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O427" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P427" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q427" t="s" s="2">
         <v>74</v>
@@ -49904,7 +49907,7 @@
         <v>74</v>
       </c>
       <c r="T427" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="U427" t="s" s="2">
         <v>74</v>
@@ -49922,7 +49925,7 @@
         <v>315</v>
       </c>
       <c r="Z427" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA427" t="s" s="2">
         <v>74</v>
@@ -49943,7 +49946,7 @@
         <v>74</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>82</v>
@@ -49960,13 +49963,13 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -49992,10 +49995,10 @@
         <v>354</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
@@ -50026,7 +50029,7 @@
       </c>
       <c r="Z428" s="2"/>
       <c r="AA428" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="AB428" t="s" s="2">
         <v>74</v>
@@ -50044,7 +50047,7 @@
         <v>74</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>82</v>
@@ -50061,19 +50064,19 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E429" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" t="s" s="2">
@@ -50095,14 +50098,14 @@
         <v>136</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O429" s="2"/>
       <c r="P429" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q429" t="s" s="2">
         <v>74</v>
@@ -50151,7 +50154,7 @@
         <v>74</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>75</v>
@@ -50168,13 +50171,13 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -50271,13 +50274,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
@@ -50376,13 +50379,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
@@ -50483,17 +50486,17 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" t="s" s="2">
@@ -50515,16 +50518,16 @@
         <v>354</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O433" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P433" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q433" t="s" s="2">
         <v>74</v>
@@ -50534,7 +50537,7 @@
         <v>74</v>
       </c>
       <c r="T433" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="U433" t="s" s="2">
         <v>74</v>
@@ -50552,7 +50555,7 @@
         <v>315</v>
       </c>
       <c r="Z433" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA433" t="s" s="2">
         <v>74</v>
@@ -50573,7 +50576,7 @@
         <v>74</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>82</v>
@@ -50590,13 +50593,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -50622,10 +50625,10 @@
         <v>354</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O434" s="2"/>
       <c r="P434" s="2"/>
@@ -50656,7 +50659,7 @@
       </c>
       <c r="Z434" s="2"/>
       <c r="AA434" t="s" s="2">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AB434" t="s" s="2">
         <v>74</v>
@@ -50674,7 +50677,7 @@
         <v>74</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>82</v>
@@ -50691,19 +50694,19 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E435" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" t="s" s="2">
@@ -50725,14 +50728,14 @@
         <v>136</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O435" s="2"/>
       <c r="P435" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q435" t="s" s="2">
         <v>74</v>
@@ -50781,7 +50784,7 @@
         <v>74</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>75</v>
@@ -50798,13 +50801,13 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
@@ -50901,13 +50904,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" t="s" s="2">
@@ -51006,13 +51009,13 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
@@ -51113,17 +51116,17 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" t="s" s="2">
@@ -51145,16 +51148,16 @@
         <v>354</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O439" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P439" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q439" t="s" s="2">
         <v>74</v>
@@ -51164,7 +51167,7 @@
         <v>74</v>
       </c>
       <c r="T439" t="s" s="2">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="U439" t="s" s="2">
         <v>74</v>
@@ -51182,7 +51185,7 @@
         <v>315</v>
       </c>
       <c r="Z439" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA439" t="s" s="2">
         <v>74</v>
@@ -51203,7 +51206,7 @@
         <v>74</v>
       </c>
       <c r="AG439" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH439" t="s" s="2">
         <v>82</v>
@@ -51220,13 +51223,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
@@ -51252,10 +51255,10 @@
         <v>422</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N440" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
@@ -51306,7 +51309,7 @@
         <v>74</v>
       </c>
       <c r="AG440" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH440" t="s" s="2">
         <v>82</v>
@@ -51323,19 +51326,19 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E441" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F441" s="2"/>
       <c r="G441" t="s" s="2">
@@ -51357,14 +51360,14 @@
         <v>136</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="N441" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O441" s="2"/>
       <c r="P441" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q441" t="s" s="2">
         <v>74</v>
@@ -51413,7 +51416,7 @@
         <v>74</v>
       </c>
       <c r="AG441" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH441" t="s" s="2">
         <v>75</v>
@@ -51425,18 +51428,18 @@
         <v>94</v>
       </c>
       <c r="AK441" t="s" s="2">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -51533,13 +51536,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -51638,13 +51641,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
@@ -51745,17 +51748,17 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F445" s="2"/>
       <c r="G445" t="s" s="2">
@@ -51777,16 +51780,16 @@
         <v>354</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N445" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O445" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P445" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q445" t="s" s="2">
         <v>74</v>
@@ -51796,7 +51799,7 @@
         <v>74</v>
       </c>
       <c r="T445" t="s" s="2">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="U445" t="s" s="2">
         <v>74</v>
@@ -51814,7 +51817,7 @@
         <v>315</v>
       </c>
       <c r="Z445" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA445" t="s" s="2">
         <v>74</v>
@@ -51835,7 +51838,7 @@
         <v>74</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>82</v>
@@ -51852,13 +51855,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C446" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -51884,10 +51887,10 @@
         <v>354</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
@@ -51918,7 +51921,7 @@
       </c>
       <c r="Z446" s="2"/>
       <c r="AA446" t="s" s="2">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="AB446" t="s" s="2">
         <v>74</v>
@@ -51936,7 +51939,7 @@
         <v>74</v>
       </c>
       <c r="AG446" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH446" t="s" s="2">
         <v>82</v>
@@ -51953,19 +51956,19 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C447" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E447" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F447" s="2"/>
       <c r="G447" t="s" s="2">
@@ -51987,14 +51990,14 @@
         <v>136</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="N447" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O447" s="2"/>
       <c r="P447" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q447" t="s" s="2">
         <v>74</v>
@@ -52043,7 +52046,7 @@
         <v>74</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>75</v>
@@ -52060,13 +52063,13 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -52163,13 +52166,13 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
@@ -52268,13 +52271,13 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" t="s" s="2">
@@ -52375,17 +52378,17 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F451" s="2"/>
       <c r="G451" t="s" s="2">
@@ -52407,16 +52410,16 @@
         <v>354</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N451" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O451" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P451" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q451" t="s" s="2">
         <v>74</v>
@@ -52426,7 +52429,7 @@
         <v>74</v>
       </c>
       <c r="T451" t="s" s="2">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="U451" t="s" s="2">
         <v>74</v>
@@ -52444,7 +52447,7 @@
         <v>315</v>
       </c>
       <c r="Z451" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA451" t="s" s="2">
         <v>74</v>
@@ -52465,7 +52468,7 @@
         <v>74</v>
       </c>
       <c r="AG451" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH451" t="s" s="2">
         <v>82</v>
@@ -52482,13 +52485,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -52514,10 +52517,10 @@
         <v>354</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N452" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
@@ -52548,7 +52551,7 @@
       </c>
       <c r="Z452" s="2"/>
       <c r="AA452" t="s" s="2">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="AB452" t="s" s="2">
         <v>74</v>
@@ -52566,7 +52569,7 @@
         <v>74</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>82</v>
@@ -52583,19 +52586,19 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E453" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F453" s="2"/>
       <c r="G453" t="s" s="2">
@@ -52617,14 +52620,14 @@
         <v>136</v>
       </c>
       <c r="M453" t="s" s="2">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="N453" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O453" s="2"/>
       <c r="P453" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q453" t="s" s="2">
         <v>74</v>
@@ -52673,7 +52676,7 @@
         <v>74</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>75</v>
@@ -52690,13 +52693,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -52793,13 +52796,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -52898,13 +52901,13 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -53005,17 +53008,17 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" t="s" s="2">
@@ -53037,16 +53040,16 @@
         <v>354</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O457" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P457" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q457" t="s" s="2">
         <v>74</v>
@@ -53056,7 +53059,7 @@
         <v>74</v>
       </c>
       <c r="T457" t="s" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="U457" t="s" s="2">
         <v>74</v>
@@ -53074,7 +53077,7 @@
         <v>315</v>
       </c>
       <c r="Z457" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA457" t="s" s="2">
         <v>74</v>
@@ -53095,7 +53098,7 @@
         <v>74</v>
       </c>
       <c r="AG457" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH457" t="s" s="2">
         <v>82</v>
@@ -53112,13 +53115,13 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
@@ -53141,13 +53144,13 @@
         <v>74</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O458" s="2"/>
       <c r="P458" s="2"/>
@@ -53198,7 +53201,7 @@
         <v>74</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>82</v>
@@ -53215,19 +53218,19 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D459" t="s" s="2">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E459" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" t="s" s="2">
@@ -53249,14 +53252,14 @@
         <v>136</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O459" s="2"/>
       <c r="P459" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q459" t="s" s="2">
         <v>74</v>
@@ -53305,7 +53308,7 @@
         <v>74</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>75</v>
@@ -53322,13 +53325,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -53425,13 +53428,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -53530,13 +53533,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -53637,17 +53640,17 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F463" s="2"/>
       <c r="G463" t="s" s="2">
@@ -53669,16 +53672,16 @@
         <v>354</v>
       </c>
       <c r="M463" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N463" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O463" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P463" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q463" t="s" s="2">
         <v>74</v>
@@ -53688,7 +53691,7 @@
         <v>74</v>
       </c>
       <c r="T463" t="s" s="2">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="U463" t="s" s="2">
         <v>74</v>
@@ -53706,7 +53709,7 @@
         <v>315</v>
       </c>
       <c r="Z463" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA463" t="s" s="2">
         <v>74</v>
@@ -53727,7 +53730,7 @@
         <v>74</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>82</v>
@@ -53744,13 +53747,13 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -53776,10 +53779,10 @@
         <v>354</v>
       </c>
       <c r="M464" t="s" s="2">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="N464" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
@@ -53810,7 +53813,7 @@
       </c>
       <c r="Z464" s="2"/>
       <c r="AA464" t="s" s="2">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="AB464" t="s" s="2">
         <v>74</v>
@@ -53828,7 +53831,7 @@
         <v>74</v>
       </c>
       <c r="AG464" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH464" t="s" s="2">
         <v>82</v>
@@ -53845,19 +53848,19 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E465" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" t="s" s="2">
@@ -53879,14 +53882,14 @@
         <v>136</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O465" s="2"/>
       <c r="P465" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q465" t="s" s="2">
         <v>74</v>
@@ -53935,7 +53938,7 @@
         <v>74</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>75</v>
@@ -53952,13 +53955,13 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
@@ -54055,13 +54058,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -54160,13 +54163,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -54267,17 +54270,17 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F469" s="2"/>
       <c r="G469" t="s" s="2">
@@ -54299,16 +54302,16 @@
         <v>354</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O469" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P469" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q469" t="s" s="2">
         <v>74</v>
@@ -54318,7 +54321,7 @@
         <v>74</v>
       </c>
       <c r="T469" t="s" s="2">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="U469" t="s" s="2">
         <v>74</v>
@@ -54336,7 +54339,7 @@
         <v>315</v>
       </c>
       <c r="Z469" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA469" t="s" s="2">
         <v>74</v>
@@ -54357,7 +54360,7 @@
         <v>74</v>
       </c>
       <c r="AG469" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH469" t="s" s="2">
         <v>82</v>
@@ -54374,13 +54377,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -54406,10 +54409,10 @@
         <v>354</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
@@ -54440,7 +54443,7 @@
       </c>
       <c r="Z470" s="2"/>
       <c r="AA470" t="s" s="2">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="AB470" t="s" s="2">
         <v>74</v>
@@ -54458,7 +54461,7 @@
         <v>74</v>
       </c>
       <c r="AG470" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH470" t="s" s="2">
         <v>82</v>
@@ -54475,19 +54478,19 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D471" t="s" s="2">
         <v>612</v>
       </c>
       <c r="E471" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F471" s="2"/>
       <c r="G471" t="s" s="2">
@@ -54509,14 +54512,14 @@
         <v>136</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="N471" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q471" t="s" s="2">
         <v>74</v>
@@ -54565,7 +54568,7 @@
         <v>74</v>
       </c>
       <c r="AG471" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH471" t="s" s="2">
         <v>75</v>
@@ -54582,13 +54585,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -54685,13 +54688,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -54790,13 +54793,13 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" t="s" s="2">
@@ -54897,17 +54900,17 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F475" s="2"/>
       <c r="G475" t="s" s="2">
@@ -54929,16 +54932,16 @@
         <v>354</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N475" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O475" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P475" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q475" t="s" s="2">
         <v>74</v>
@@ -54948,7 +54951,7 @@
         <v>74</v>
       </c>
       <c r="T475" t="s" s="2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="U475" t="s" s="2">
         <v>74</v>
@@ -54966,7 +54969,7 @@
         <v>315</v>
       </c>
       <c r="Z475" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA475" t="s" s="2">
         <v>74</v>
@@ -54987,7 +54990,7 @@
         <v>74</v>
       </c>
       <c r="AG475" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH475" t="s" s="2">
         <v>82</v>
@@ -55004,13 +55007,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -55036,10 +55039,10 @@
         <v>112</v>
       </c>
       <c r="M476" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N476" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
@@ -55090,7 +55093,7 @@
         <v>74</v>
       </c>
       <c r="AG476" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH476" t="s" s="2">
         <v>82</v>
@@ -55107,19 +55110,19 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D477" t="s" s="2">
         <v>633</v>
       </c>
       <c r="E477" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F477" s="2"/>
       <c r="G477" t="s" s="2">
@@ -55141,14 +55144,14 @@
         <v>136</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="O477" s="2"/>
       <c r="P477" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q477" t="s" s="2">
         <v>74</v>
@@ -55197,7 +55200,7 @@
         <v>74</v>
       </c>
       <c r="AG477" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AH477" t="s" s="2">
         <v>75</v>
@@ -55214,13 +55217,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -55317,13 +55320,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -55422,13 +55425,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -55529,17 +55532,17 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F481" s="2"/>
       <c r="G481" t="s" s="2">
@@ -55561,16 +55564,16 @@
         <v>354</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N481" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O481" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="P481" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q481" t="s" s="2">
         <v>74</v>
@@ -55580,7 +55583,7 @@
         <v>74</v>
       </c>
       <c r="T481" t="s" s="2">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="U481" t="s" s="2">
         <v>74</v>
@@ -55598,7 +55601,7 @@
         <v>315</v>
       </c>
       <c r="Z481" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AA481" t="s" s="2">
         <v>74</v>
@@ -55619,7 +55622,7 @@
         <v>74</v>
       </c>
       <c r="AG481" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AH481" t="s" s="2">
         <v>82</v>
@@ -55636,13 +55639,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -55668,10 +55671,10 @@
         <v>112</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
@@ -55722,7 +55725,7 @@
         <v>74</v>
       </c>
       <c r="AG482" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AH482" t="s" s="2">
         <v>82</v>
@@ -55739,13 +55742,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -55771,14 +55774,14 @@
         <v>136</v>
       </c>
       <c r="M483" t="s" s="2">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="N483" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="O483" s="2"/>
       <c r="P483" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="Q483" t="s" s="2">
         <v>74</v>
@@ -55827,7 +55830,7 @@
         <v>74</v>
       </c>
       <c r="AG483" t="s" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="AH483" t="s" s="2">
         <v>75</v>
@@ -55844,13 +55847,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -55947,13 +55950,13 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -56052,13 +56055,13 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -56159,17 +56162,17 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F487" s="2"/>
       <c r="G487" t="s" s="2">
@@ -56191,16 +56194,16 @@
         <v>354</v>
       </c>
       <c r="M487" t="s" s="2">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="N487" t="s" s="2">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="O487" t="s" s="2">
         <v>357</v>
       </c>
       <c r="P487" t="s" s="2">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="Q487" t="s" s="2">
         <v>74</v>
@@ -56228,7 +56231,7 @@
         <v>315</v>
       </c>
       <c r="Z487" t="s" s="2">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="AA487" t="s" s="2">
         <v>74</v>
@@ -56249,7 +56252,7 @@
         <v>74</v>
       </c>
       <c r="AG487" t="s" s="2">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="AH487" t="s" s="2">
         <v>82</v>
@@ -56266,13 +56269,13 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -56295,17 +56298,17 @@
         <v>74</v>
       </c>
       <c r="L488" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M488" t="s" s="2">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="N488" t="s" s="2">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="O488" s="2"/>
       <c r="P488" t="s" s="2">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="Q488" t="s" s="2">
         <v>74</v>
@@ -56354,7 +56357,7 @@
         <v>74</v>
       </c>
       <c r="AG488" t="s" s="2">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="AH488" t="s" s="2">
         <v>82</v>

--- a/issues96/ig/all-profiles.xlsx
+++ b/issues96/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:58:54+00:00</t>
+    <t>2024-04-05T07:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues96/ig/all-profiles.xlsx
+++ b/issues96/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T12:44:22+00:00</t>
+    <t>2024-04-08T13:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1147,7 +1147,6 @@
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/consentscope"/&gt;
     &lt;code value="patient-privacy"/&gt;
-    &lt;display value="Privacy Consent"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
